--- a/Exemplar of User Stories.xlsx
+++ b/Exemplar of User Stories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://w2shared-my.sharepoint.com/personal/dave_sushames01_student_wandw_ac_nz/Documents/Documents/Testing and Secure Coding/GroupAssignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="11_54D282350BB20B8CABA1FC287F7825C14AB2CAC7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66943432-952C-45C5-935C-CA1AD1D942AC}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="11_54D282350BB20B8CABA1FC287F7825C14AB2CAC7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12DDD4B5-5FE7-44A9-AE95-C838AE89A5EB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Project Name:</t>
   </si>
@@ -174,13 +174,46 @@
   </si>
   <si>
     <t>As an Admin I want to log out of the FML webpage when I'm done using it, so that other users can log in.</t>
+  </si>
+  <si>
+    <t>Registered Admin can Create new Authors.</t>
+  </si>
+  <si>
+    <t>Registered Admin can Edit author information.</t>
+  </si>
+  <si>
+    <t>Registered Admin can Delete authors.</t>
+  </si>
+  <si>
+    <t>Registered Admin can Search the authors.</t>
+  </si>
+  <si>
+    <t>Registered Admin can Sort the author catalogue.</t>
+  </si>
+  <si>
+    <t>As an admin,  I want to edit authors information, so that I can fix any errors.</t>
+  </si>
+  <si>
+    <t>As an admin, I want to delete books including their details, so that I can remove incorrect authors from the system.</t>
+  </si>
+  <si>
+    <t>As an admin, I want to add new authors to the library catalogue, so that people can see who wrote a book.</t>
+  </si>
+  <si>
+    <t>As a user, I want to search for authors by keyword, so that I can search for a specific author easier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As an Admin, I want to sort the authors in the catalogue according to First and Last name. </t>
+  </si>
+  <si>
+    <t>US013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,12 +251,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -311,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -331,24 +358,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent3" xfId="1" builtinId="40"/>
@@ -571,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -589,63 +610,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -703,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2"/>
       <c r="J9" s="2"/>
@@ -739,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="2"/>
       <c r="J10" s="2"/>
@@ -775,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2"/>
       <c r="J11" s="2"/>
@@ -811,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2"/>
       <c r="J12" s="2"/>
@@ -847,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2"/>
       <c r="J13" s="2"/>
@@ -883,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2"/>
       <c r="J14" s="2"/>
@@ -919,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="2"/>
       <c r="J15" s="2"/>
@@ -945,13 +966,17 @@
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E16" s="3">
         <v>3</v>
       </c>
       <c r="F16" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -959,13 +984,17 @@
       <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E17" s="3">
         <v>3</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -973,13 +1002,17 @@
       <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E18" s="3">
         <v>3</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -987,24 +1020,44 @@
       <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E19" s="3">
         <v>4</v>
       </c>
       <c r="F19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="3">
         <v>4</v>
       </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
